--- a/ise_trustsec_matrix_thomas_extended.xlsx
+++ b/ise_trustsec_matrix_thomas_extended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomas/hack/Projects/Cisco_ISE_Meraki_TrustSec_Scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61424733-1BC9-534B-BF20-053E7647116D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD6EDC1-BF51-F94D-9DCA-7B17EC8A4615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="24000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Matrix" sheetId="1" r:id="rId1"/>
@@ -210,62 +210,18 @@
     <t>IPV4</t>
   </si>
   <si>
-    <t>deny icmp any any
-deny tcp any 22
-deny udp any 53
-deny udp any 67
-deny udp any 68
-deny udp any 69
-deny tcp any 135
-deny tcp any 137
-deny tcp any 138
-deny tcp any 139
-deny tcp any 445
-deny tcp any 689
-deny udp any 1025
-deny udp any 1026
-deny tcp any 3389
-allow any any any</t>
-  </si>
-  <si>
     <t>deny ip</t>
   </si>
   <si>
     <t>deny ip log</t>
   </si>
   <si>
-    <t>deny icmp any any
-deny tcp any 21
-allow tcp any 53
-allow udp any 53
-allow udp any 67
-allow udp any 68
-allow udp any 123
-allow udp any 514
-allow udp any 6514
-deny any any any</t>
-  </si>
-  <si>
     <t>permit ip</t>
   </si>
   <si>
     <t>permit ip log</t>
   </si>
   <si>
-    <t>allow tcp any 80
-allow tcp any 443
-allow tcp any 554
-allow udp any 554</t>
-  </si>
-  <si>
-    <t>allow tcp any 2000
-allow udp any 2000
-allow tcp any 5060
-allow udp any 5060
-allow tcp any 5061
-allow udp any 5061</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
@@ -276,6 +232,50 @@
   </si>
   <si>
     <t>For network devices  and dashboard communication</t>
+  </si>
+  <si>
+    <t>deny icmp
+deny tcp dst eq 22
+deny udp dst eq 53
+deny udp dst eq 67
+deny udp dst eq 68
+deny udp dst eq 69
+deny tcp dst eq 135
+deny tcp dst eq 137
+deny tcp dst eq 138
+deny tcp dst eq 139
+deny tcp dst eq 445
+deny tcp dst eq 689
+deny udp dst eq 1025
+deny udp dst eq 1026
+deny tcp dst eq 3389
+permit ip</t>
+  </si>
+  <si>
+    <t>deny icmp
+deny tcp dst eq 21
+permit tcp dst eq  53
+permit udp dst eq  53
+permit udp dst eq  67
+permit udp dst eq  68
+permit udp dst eq  123
+permit udp dst eq  514
+permit udp dst eq  6514
+deny ip</t>
+  </si>
+  <si>
+    <t>permit tcp dst eq 80
+permit tcp dst eq 443
+permit tcp dst eq 554
+permit udp dst eq 554</t>
+  </si>
+  <si>
+    <t>permit tcp dst eq 2000
+permit udp dst eq 2000
+permit tcp dst eq 5060
+permit udp dst eq 5060
+permit tcp dst eq 5061
+permit udp dst eq 5061</t>
   </si>
 </sst>
 </file>
@@ -334,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -347,6 +347,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -910,7 +916,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -1094,9 +1100,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="5" width="19.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
@@ -1115,116 +1126,116 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="256" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
+    <row r="4" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="5" spans="1:5" s="5" customFormat="1" ht="160" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="7" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="5" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" t="s">
-        <v>69</v>
+      <c r="E9" s="6" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1255,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>44</v>
@@ -1253,13 +1264,13 @@
         <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>46</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1430,7 +1441,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D10">
         <v>2</v>
